--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="899">
   <si>
     <t>anchor score</t>
   </si>
@@ -295,484 +295,484 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>crush</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>stuck</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>podcast</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>summer</t>
-  </si>
-  <si>
-    <t>crush</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>fox</t>
   </si>
   <si>
     <t>social</t>
@@ -3079,7 +3079,7 @@
         <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3137,7 +3137,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03227999629053303</v>
+        <v>0.03276595494517784</v>
       </c>
       <c r="C3">
         <v>236</v>
@@ -3158,28 +3158,28 @@
         <v>56</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="K3">
-        <v>0.005258506655305605</v>
+        <v>0.008528069006768292</v>
       </c>
       <c r="L3">
-        <v>752</v>
+        <v>222</v>
       </c>
       <c r="M3">
-        <v>785</v>
+        <v>222</v>
       </c>
       <c r="N3">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2322</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3187,7 +3187,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01916101398201881</v>
+        <v>0.01944947314082804</v>
       </c>
       <c r="C4">
         <v>242</v>
@@ -3208,28 +3208,28 @@
         <v>272</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="K4">
-        <v>0.004492212999694086</v>
+        <v>0.007550032877218295</v>
       </c>
       <c r="L4">
-        <v>295</v>
+        <v>174</v>
       </c>
       <c r="M4">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3237,7 +3237,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01361764849746285</v>
+        <v>0.01382265515495103</v>
       </c>
       <c r="C5">
         <v>42</v>
@@ -3258,28 +3258,28 @@
         <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="K5">
-        <v>0.004486136322725231</v>
+        <v>0.005258506655305605</v>
       </c>
       <c r="L5">
-        <v>197</v>
+        <v>752</v>
       </c>
       <c r="M5">
-        <v>199</v>
+        <v>785</v>
       </c>
       <c r="N5">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O5">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>287</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3287,7 +3287,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01169925808454986</v>
+        <v>0.01187538436622411</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3308,28 +3308,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>253</v>
+        <v>91</v>
       </c>
       <c r="K6">
-        <v>0.004321272426940429</v>
+        <v>0.004492212999694086</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>295</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>301</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>173</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3337,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01029397467593688</v>
+        <v>0.01044894514245868</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -3358,28 +3358,28 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="K7">
-        <v>0.004127393638672206</v>
+        <v>0.004486136322725231</v>
       </c>
       <c r="L7">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3387,7 +3387,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01029397467593688</v>
+        <v>0.01044894514245868</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -3408,16 +3408,16 @@
         <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K8">
-        <v>0.004087514504034822</v>
+        <v>0.004321272426940429</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>114</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3437,7 +3437,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009855730401299237</v>
+        <v>0.01000410332684886</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -3458,28 +3458,28 @@
         <v>29</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="K9">
-        <v>0.0037347305210176</v>
+        <v>0.004127393638672206</v>
       </c>
       <c r="L9">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="M9">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3487,7 +3487,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.00962913159637078</v>
+        <v>0.009774093194069057</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -3508,28 +3508,28 @@
         <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="K10">
-        <v>0.003710920624911987</v>
+        <v>0.004087514504034822</v>
       </c>
       <c r="L10">
-        <v>453</v>
+        <v>51</v>
       </c>
       <c r="M10">
-        <v>477</v>
+        <v>51</v>
       </c>
       <c r="N10">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1666</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3537,7 +3537,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009159131094950562</v>
+        <v>0.009297017078101153</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -3558,16 +3558,16 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K11">
-        <v>0.003511156495709343</v>
+        <v>0.0037347305210176</v>
       </c>
       <c r="L11">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="N11">
         <v>0.99</v>
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3587,7 +3587,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009159131094950562</v>
+        <v>0.009297017078101153</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -3608,28 +3608,28 @@
         <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="K12">
-        <v>0.003481569592971009</v>
+        <v>0.003710920624911987</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>453</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>477</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3637,7 +3637,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008914843575275022</v>
+        <v>0.00904905193611923</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -3658,28 +3658,28 @@
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>257</v>
+        <v>145</v>
       </c>
       <c r="K13">
-        <v>0.003337441617036922</v>
+        <v>0.003511156495709343</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3687,7 +3687,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008663670672916559</v>
+        <v>0.008794097755577993</v>
       </c>
       <c r="C14">
         <v>17</v>
@@ -3708,16 +3708,16 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K14">
-        <v>0.003337441617036922</v>
+        <v>0.003481569592971009</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3737,7 +3737,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008663670672916559</v>
+        <v>0.008794097755577993</v>
       </c>
       <c r="C15">
         <v>17</v>
@@ -3758,28 +3758,28 @@
         <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>90</v>
+        <v>257</v>
       </c>
       <c r="K15">
-        <v>0.003188583792862652</v>
+        <v>0.003337441617036922</v>
       </c>
       <c r="L15">
-        <v>275</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>287</v>
+        <v>34</v>
       </c>
       <c r="N15">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>607</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3787,7 +3787,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00840499512705906</v>
+        <v>0.008531527983118887</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -3808,16 +3808,16 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K16">
-        <v>0.003186801886462308</v>
+        <v>0.003337441617036922</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3837,7 +3837,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008138101538013559</v>
+        <v>0.0082606164490805</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3858,28 +3858,28 @@
         <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="K17">
-        <v>0.003028678916621805</v>
+        <v>0.003188583792862652</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>275</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>115</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3887,7 +3887,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.008138101538013559</v>
+        <v>0.0082606164490805</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -3908,16 +3908,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K18">
-        <v>0.003028678916621805</v>
+        <v>0.003186801886462308</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3937,7 +3937,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008138101538013559</v>
+        <v>0.0082606164490805</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -3958,16 +3958,16 @@
         <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K19">
-        <v>0.002974103655243486</v>
+        <v>0.003028678916621805</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3987,7 +3987,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007862153025739879</v>
+        <v>0.007980513674626342</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -4008,16 +4008,16 @@
         <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K20">
-        <v>0.002974103655243486</v>
+        <v>0.003028678916621805</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4037,7 +4037,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007576160225159102</v>
+        <v>0.007690215400297754</v>
       </c>
       <c r="C21">
         <v>13</v>
@@ -4058,28 +4058,28 @@
         <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="K21">
-        <v>0.002941169519750374</v>
+        <v>0.002974103655243486</v>
       </c>
       <c r="L21">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2985</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4087,7 +4087,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007576160225159102</v>
+        <v>0.007690215400297754</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -4108,28 +4108,28 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="K22">
-        <v>0.002811825612099556</v>
+        <v>0.002974103655243486</v>
       </c>
       <c r="L22">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>658</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4137,7 +4137,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007576160225159102</v>
+        <v>0.007690215400297754</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -4158,28 +4158,28 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>264</v>
+        <v>93</v>
       </c>
       <c r="K23">
-        <v>0.002622912881700815</v>
+        <v>0.002941169519750374</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>38</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4187,7 +4187,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007278939298717562</v>
+        <v>0.007388519966478771</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -4208,28 +4208,28 @@
         <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="K24">
-        <v>0.002622912881700815</v>
+        <v>0.002811825612099556</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4237,7 +4237,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007278939298717562</v>
+        <v>0.007388519966478771</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -4258,7 +4258,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K25">
         <v>0.002622912881700815</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4287,7 +4287,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006969053800305103</v>
+        <v>0.007073969302105726</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K26">
         <v>0.002622912881700815</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4337,7 +4337,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006969053800305103</v>
+        <v>0.007073969302105726</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4358,28 +4358,28 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="K27">
-        <v>0.002603994486806119</v>
+        <v>0.002622912881700815</v>
       </c>
       <c r="L27">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4387,7 +4387,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006969053800305103</v>
+        <v>0.007073969302105726</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -4408,16 +4408,16 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K28">
-        <v>0.002559700872589473</v>
+        <v>0.002622912881700815</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4437,7 +4437,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006969053800305103</v>
+        <v>0.007073969302105726</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -4458,28 +4458,28 @@
         <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>269</v>
+        <v>151</v>
       </c>
       <c r="K29">
-        <v>0.002559700872589473</v>
+        <v>0.002603994486806119</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4487,7 +4487,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006644732081030739</v>
+        <v>0.006744765087029562</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -4508,7 +4508,7 @@
         <v>11</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K30">
         <v>0.002559700872589473</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>96</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4537,7 +4537,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006644732081030739</v>
+        <v>0.006744765087029562</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -4558,28 +4558,28 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>134</v>
+        <v>269</v>
       </c>
       <c r="K31">
-        <v>0.002531568144349034</v>
+        <v>0.002559700872589473</v>
       </c>
       <c r="L31">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="N31">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>406</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4587,7 +4587,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006644732081030739</v>
+        <v>0.006744765087029562</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -4608,28 +4608,28 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="K32">
-        <v>0.002504983072244974</v>
+        <v>0.002559700872589473</v>
       </c>
       <c r="L32">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4637,7 +4637,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006644732081030739</v>
+        <v>0.006744765087029562</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -4658,28 +4658,28 @@
         <v>9</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K33">
-        <v>0.00244874687673274</v>
+        <v>0.002531568144349034</v>
       </c>
       <c r="L33">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="M33">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4687,7 +4687,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006644732081030739</v>
+        <v>0.006744765087029562</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -4708,28 +4708,28 @@
         <v>4</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="K34">
-        <v>0.002428345465830959</v>
+        <v>0.002504983072244974</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4737,7 +4737,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006303746345294296</v>
+        <v>0.006398645987339165</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -4758,28 +4758,28 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K35">
-        <v>0.00235918208933742</v>
+        <v>0.00244874687673274</v>
       </c>
       <c r="L35">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="M35">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>104</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4787,7 +4787,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005943229050183349</v>
+        <v>0.006032701290746154</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -4808,28 +4808,28 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="K36">
-        <v>0.002328269310728441</v>
+        <v>0.002428345465830959</v>
       </c>
       <c r="L36">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>202</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4837,7 +4837,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005943229050183349</v>
+        <v>0.006032701290746154</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -4858,28 +4858,28 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K37">
-        <v>0.002316024192900119</v>
+        <v>0.002328269310728441</v>
       </c>
       <c r="L37">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="M37">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>82</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4887,7 +4887,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005943229050183349</v>
+        <v>0.006032701290746154</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -4908,28 +4908,28 @@
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="K38">
-        <v>0.002289466061270235</v>
+        <v>0.002316024192900119</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4937,7 +4937,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005943229050183349</v>
+        <v>0.006032701290746154</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -4958,7 +4958,7 @@
         <v>141</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K39">
         <v>0.002289466061270235</v>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4987,7 +4987,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005559381719227001</v>
+        <v>0.00564307533668026</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -5008,28 +5008,28 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="K40">
-        <v>0.002252518699480705</v>
+        <v>0.002289466061270235</v>
       </c>
       <c r="L40">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>220</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5037,7 +5037,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005559381719227001</v>
+        <v>0.00564307533668026</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -5058,28 +5058,28 @@
         <v>5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K41">
-        <v>0.00223051518662481</v>
+        <v>0.002252518699480705</v>
       </c>
       <c r="L41">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="M41">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>725</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5087,7 +5087,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5108,28 +5108,28 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="K42">
-        <v>0.002216765981751678</v>
+        <v>0.00223051518662481</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>73</v>
+        <v>725</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5137,7 +5137,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5158,7 +5158,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K43">
         <v>0.002216765981751678</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5187,7 +5187,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5208,28 +5208,28 @@
         <v>24</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>142</v>
+        <v>275</v>
       </c>
       <c r="K44">
-        <v>0.002184923339479956</v>
+        <v>0.002216765981751678</v>
       </c>
       <c r="L44">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5237,7 +5237,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5258,28 +5258,28 @@
         <v>33</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="K45">
-        <v>0.002141599399980005</v>
+        <v>0.002184923339479956</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5287,7 +5287,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5308,7 +5308,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K46">
         <v>0.002141599399980005</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5337,7 +5337,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5358,28 +5358,28 @@
         <v>4</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="K47">
-        <v>0.002130593186474329</v>
+        <v>0.002141599399980005</v>
       </c>
       <c r="L47">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="N47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5387,7 +5387,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5408,28 +5408,28 @@
         <v>17</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="K48">
-        <v>0.002085650949924742</v>
+        <v>0.002130593186474329</v>
       </c>
       <c r="L48">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="M48">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="N48">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O48">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>54</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5437,7 +5437,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004698535113664635</v>
+        <v>0.004769269130548878</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -5487,7 +5487,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004698535113664635</v>
+        <v>0.004769269130548878</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -5537,7 +5537,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004698535113664635</v>
+        <v>0.004769269130548878</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -5587,7 +5587,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004698535113664635</v>
+        <v>0.004769269130548878</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5637,7 +5637,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -5687,7 +5687,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -5737,7 +5737,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -5787,7 +5787,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -5837,7 +5837,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -5887,7 +5887,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -5937,7 +5937,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004044024085878333</v>
+        <v>0.004104904777636683</v>
       </c>
       <c r="C59">
         <v>33</v>
@@ -5958,7 +5958,7 @@
         <v>2322</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K59">
         <v>0.001921409482551617</v>
@@ -5987,7 +5987,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -6008,7 +6008,7 @@
         <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K60">
         <v>0.001920954401334778</v>
@@ -6037,7 +6037,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -6087,7 +6087,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6137,7 +6137,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6187,7 +6187,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6237,7 +6237,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6287,7 +6287,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6337,7 +6337,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6387,7 +6387,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6408,7 +6408,7 @@
         <v>23</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K68">
         <v>0.001884457093305058</v>
@@ -6437,7 +6437,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6458,7 +6458,7 @@
         <v>4</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K69">
         <v>0.001859512317220707</v>
@@ -6487,7 +6487,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003135750071975877</v>
+        <v>0.003182957168053724</v>
       </c>
       <c r="C70">
         <v>24</v>
@@ -6537,7 +6537,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6587,7 +6587,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6637,7 +6637,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -6687,7 +6687,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6737,7 +6737,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6787,7 +6787,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6837,7 +6837,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6887,7 +6887,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6937,7 +6937,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6987,7 +6987,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7037,7 +7037,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7087,7 +7087,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7137,7 +7137,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7187,7 +7187,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7237,7 +7237,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002445261817294337</v>
+        <v>0.002482073969696448</v>
       </c>
       <c r="C85">
         <v>12</v>
@@ -7287,7 +7287,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00235195069660849</v>
+        <v>0.002387358098332696</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -7337,7 +7337,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002247729205773871</v>
+        <v>0.002281567606838497</v>
       </c>
       <c r="C87">
         <v>11</v>
@@ -7387,25 +7387,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002174964882112789</v>
+        <v>0.002149443294171642</v>
       </c>
       <c r="C88">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D88">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="E88">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F88">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>104</v>
+        <v>2985</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>313</v>
@@ -7437,25 +7437,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002117564456114927</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>2985</v>
+        <v>11</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>314</v>
@@ -7487,7 +7487,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>315</v>
@@ -7537,7 +7537,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>316</v>
@@ -7587,7 +7587,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>317</v>
@@ -7637,7 +7637,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>318</v>
@@ -7687,7 +7687,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>319</v>
@@ -7737,7 +7737,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>320</v>
@@ -7787,7 +7787,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>321</v>
@@ -7837,7 +7837,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K97">
         <v>0.001586868590737232</v>
@@ -7887,7 +7887,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7905,10 +7905,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K98">
         <v>0.001577165572701724</v>
@@ -7937,7 +7937,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>322</v>
@@ -7987,7 +7987,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>323</v>
@@ -8037,7 +8037,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>324</v>
@@ -8087,7 +8087,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>325</v>
@@ -8137,7 +8137,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>326</v>
@@ -8187,7 +8187,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>327</v>
@@ -8237,7 +8237,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>328</v>
@@ -8287,7 +8287,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8305,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>329</v>
@@ -8337,7 +8337,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8355,10 +8355,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K107">
         <v>0.001455102574392889</v>
@@ -8387,7 +8387,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>330</v>
@@ -8437,7 +8437,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>331</v>
@@ -8487,7 +8487,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>332</v>
@@ -8537,7 +8537,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>333</v>
@@ -8587,7 +8587,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8605,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>334</v>
@@ -8637,7 +8637,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>335</v>
@@ -8687,7 +8687,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>336</v>
@@ -8737,7 +8737,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>337</v>
@@ -8787,7 +8787,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8805,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>338</v>
@@ -8837,7 +8837,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>339</v>
@@ -8887,7 +8887,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>251</v>
+        <v>9</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>340</v>
@@ -8937,7 +8937,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8955,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>341</v>
@@ -8987,7 +8987,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>342</v>
@@ -9037,7 +9037,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>343</v>
@@ -9087,7 +9087,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>344</v>
@@ -9137,7 +9137,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>345</v>
@@ -9187,7 +9187,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9205,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>346</v>
@@ -9237,28 +9237,28 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002101248781764765</v>
+        <v>0.002108765537792901</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K125">
         <v>0.001367550494861919</v>
@@ -9287,13 +9287,13 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002077489999954258</v>
+        <v>0.002035806768337058</v>
       </c>
       <c r="C126">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D126">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E126">
         <v>0.9399999999999999</v>
@@ -9305,10 +9305,10 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K126">
         <v>0.001361713164452176</v>
@@ -9337,28 +9337,28 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002005613297097989</v>
+        <v>0.001856059985061745</v>
       </c>
       <c r="C127">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D127">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="E127">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F127">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>220</v>
+        <v>406</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K127">
         <v>0.001332512389531097</v>
@@ -9387,25 +9387,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001925158991365637</v>
+        <v>0.001745838092379565</v>
       </c>
       <c r="C128">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D128">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="E128">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F128">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>54</v>
+        <v>725</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>347</v>
@@ -9437,25 +9437,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001828532375541748</v>
+        <v>0.001736141845484245</v>
       </c>
       <c r="C129">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D129">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E129">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F129">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>406</v>
+        <v>272</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>348</v>
@@ -9487,25 +9487,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001719945206546696</v>
+        <v>0.001684406702773582</v>
       </c>
       <c r="C130">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="E130">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F130">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>725</v>
+        <v>287</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>349</v>
@@ -9537,25 +9537,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001710392766694516</v>
+        <v>0.00165663007032858</v>
       </c>
       <c r="C131">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E131">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F131">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>350</v>
@@ -9587,25 +9587,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001659424918585571</v>
+        <v>0.001513853617841703</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="E132">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F132">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>287</v>
+        <v>8</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>351</v>
@@ -9637,13 +9637,13 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001632060247121291</v>
+        <v>0.001480702597685191</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D133">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E133">
         <v>0.97</v>
@@ -9655,7 +9655,7 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>352</v>
@@ -9687,25 +9687,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001491401341731136</v>
+        <v>0.001449179563164005</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D134">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E134">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F134">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>353</v>
@@ -9737,13 +9737,13 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.00145874199121106</v>
+        <v>0.001439308281659904</v>
       </c>
       <c r="C135">
         <v>3</v>
       </c>
       <c r="D135">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E135">
         <v>0.97</v>
@@ -9755,7 +9755,7 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>354</v>
@@ -9787,25 +9787,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001427686481334642</v>
+        <v>0.001404503487799733</v>
       </c>
       <c r="C136">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D136">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E136">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F136">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>355</v>
@@ -9837,25 +9837,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001417961602848167</v>
+        <v>0.001330607673781449</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D137">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E137">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F137">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>356</v>
@@ -9887,25 +9887,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001383673006084274</v>
+        <v>0.001269703368624341</v>
       </c>
       <c r="C138">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D138">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E138">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F138">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>357</v>
@@ -9937,25 +9937,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001310873156167274</v>
+        <v>0.001254871698678179</v>
       </c>
       <c r="C139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="E139">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F139">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>358</v>
@@ -9987,25 +9987,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001250872135356547</v>
+        <v>0.001230845592061765</v>
       </c>
       <c r="C140">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="E140">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F140">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>359</v>
@@ -10037,25 +10037,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001236260436974933</v>
+        <v>0.00120431308389395</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="E141">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F141">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>360</v>
@@ -10087,25 +10087,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001212590666514971</v>
+        <v>0.001202910157198253</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D142">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="E142">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F142">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>361</v>
@@ -10137,25 +10137,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001186451667463406</v>
+        <v>0.00119908914536474</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D143">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E143">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F143">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>12</v>
+        <v>565</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>362</v>
@@ -10187,25 +10187,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001185069547863696</v>
+        <v>0.00119720704971516</v>
       </c>
       <c r="C144">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E144">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F144">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>363</v>
@@ -10237,13 +10237,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.00118130520624697</v>
+        <v>0.00119025591472617</v>
       </c>
       <c r="C145">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D145">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E145">
         <v>0.91</v>
@@ -10255,7 +10255,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>565</v>
+        <v>247</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>364</v>
@@ -10287,25 +10287,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001179451024347235</v>
+        <v>0.00111307870445869</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E146">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F146">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>365</v>
@@ -10337,25 +10337,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001172602983078943</v>
+        <v>0.001110684937884148</v>
       </c>
       <c r="C147">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="E147">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F147">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>366</v>
@@ -10387,25 +10387,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001096570403979197</v>
+        <v>0.001083311393298546</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D148">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E148">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F148">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>367</v>
@@ -10437,25 +10437,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001094212139851815</v>
+        <v>0.001035792172668593</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
       <c r="D149">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E149">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F149">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>368</v>
@@ -10487,25 +10487,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001067244577967524</v>
+        <v>0.001033634835849662</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E150">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F150">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>30</v>
+        <v>1101</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>369</v>
@@ -10537,25 +10537,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001020430124726947</v>
+        <v>0.0009929122469581456</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E151">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F151">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>217</v>
+        <v>6</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>370</v>
@@ -10587,25 +10587,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001018304783816571</v>
+        <v>0.000989202568141487</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E152">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F152">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>1101</v>
+        <v>22</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>371</v>
@@ -10637,25 +10637,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0009781861600633962</v>
+        <v>0.0009822207537799076</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E153">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F153">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>372</v>
@@ -10687,25 +10687,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0009745315002605258</v>
+        <v>0.0009624947303400673</v>
       </c>
       <c r="C154">
         <v>3</v>
       </c>
       <c r="D154">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E154">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F154">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>373</v>
@@ -10737,25 +10737,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0009676532346317641</v>
+        <v>0.0009470036886333745</v>
       </c>
       <c r="C155">
         <v>2</v>
       </c>
       <c r="D155">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E155">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F155">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>374</v>
@@ -10787,25 +10787,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0009482197719254154</v>
+        <v>0.0008841767011153588</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D156">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E156">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F156">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>375</v>
@@ -10837,25 +10837,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0009329584810622253</v>
+        <v>0.0008613942301796304</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E157">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F157">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>376</v>
@@ -10887,25 +10887,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0008710632935903466</v>
+        <v>0.0008602528095927733</v>
       </c>
       <c r="C158">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D158">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E158">
-        <v>0.9</v>
+        <v>0.12</v>
       </c>
       <c r="F158">
-        <v>0.09999999999999998</v>
+        <v>0.88</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>377</v>
@@ -10937,13 +10937,13 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0008486187141930743</v>
+        <v>0.0008515779482930953</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E159">
         <v>0.97</v>
@@ -10955,7 +10955,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>378</v>
@@ -10987,28 +10987,28 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0008474942222510166</v>
+        <v>0.0007789124397499051</v>
       </c>
       <c r="C160">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E160">
-        <v>0.12</v>
+        <v>0.87</v>
       </c>
       <c r="F160">
-        <v>0.88</v>
+        <v>0.13</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K160">
         <v>0.001222181559324197</v>
@@ -11037,28 +11037,28 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0008389480196134612</v>
+        <v>0.0007729016925377068</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E161">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F161">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K161">
         <v>0.001190446922431794</v>
@@ -11087,28 +11087,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0007673602282565949</v>
+        <v>0.0007324156691939095</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E162">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="F162">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K162">
         <v>0.001151875750965779</v>
@@ -11137,13 +11137,13 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0007614386276794797</v>
+        <v>0.0007177630235009147</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E163">
         <v>0.96</v>
@@ -11155,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>379</v>
@@ -11187,25 +11187,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0007215530609214584</v>
+        <v>0.0007172243214061511</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E164">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F164">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>380</v>
@@ -11237,13 +11237,13 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0007071177316472852</v>
+        <v>0.0007024533387468172</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E165">
         <v>0.96</v>
@@ -11255,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>381</v>
@@ -11287,25 +11287,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0007065870191547067</v>
+        <v>0.0007024533387468172</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E166">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F166">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>382</v>
@@ -11337,7 +11337,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0006920351079942172</v>
+        <v>0.0007024533387468172</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11355,7 +11355,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>383</v>
@@ -11387,7 +11387,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0006920351079942172</v>
+        <v>0.0007024533387468172</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>384</v>
@@ -11437,25 +11437,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0006920351079942172</v>
+        <v>0.0006864308780256001</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E169">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F169">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>385</v>
@@ -11487,25 +11487,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0006920351079942172</v>
+        <v>0.000676552300254422</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E170">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F170">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>386</v>
@@ -11537,13 +11537,13 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0006762502797018187</v>
+        <v>0.0006696327300413328</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E171">
         <v>0.95</v>
@@ -11555,7 +11555,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>387</v>
@@ -11587,25 +11587,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0006665182131607122</v>
+        <v>0.0006681319357153966</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D172">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E172">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F172">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>388</v>
@@ -11637,25 +11637,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0006597012685246006</v>
+        <v>0.0006608880385899782</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E173">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F173">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>389</v>
@@ -11687,25 +11687,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0006582227327897157</v>
+        <v>0.0006519875463025622</v>
       </c>
       <c r="C174">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E174">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F174">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>390</v>
@@ -11737,25 +11737,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.000651086271400791</v>
+        <v>0.0006393636138430778</v>
       </c>
       <c r="C175">
         <v>2</v>
       </c>
       <c r="D175">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E175">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F175">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>391</v>
@@ -11787,25 +11787,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0006423177841553433</v>
+        <v>0.0006333527686196682</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D176">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E176">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F176">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>392</v>
@@ -11837,25 +11837,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0006298810798491235</v>
+        <v>0.0006287316556534959</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D177">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E177">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F177">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>393</v>
@@ -11887,25 +11887,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0006239593827144218</v>
+        <v>0.0006138188360218183</v>
       </c>
       <c r="C178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E178">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F178">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>394</v>
@@ -11937,25 +11937,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0006194068064304171</v>
+        <v>0.0005936156180206152</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E179">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F179">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>395</v>
@@ -11987,13 +11987,13 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0006047151619110564</v>
+        <v>0.0005711163689995567</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E180">
         <v>0.9399999999999999</v>
@@ -12005,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>396</v>
@@ -12037,25 +12037,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0005848115820145809</v>
+        <v>0.0005477383898870253</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E181">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F181">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>397</v>
@@ -12087,25 +12087,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0005626460240091844</v>
+        <v>0.0005477383898870253</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E182">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F182">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>398</v>
@@ -12137,13 +12137,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0005396147685400459</v>
+        <v>0.0005227888116465824</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E183">
         <v>0.93</v>
@@ -12155,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>399</v>
@@ -12187,13 +12187,13 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0005396147685400459</v>
+        <v>0.0005227888116465824</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E184">
         <v>0.93</v>
@@ -12205,7 +12205,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>400</v>
@@ -12237,7 +12237,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0005150352226547096</v>
+        <v>0.0005227888116465824</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>49</v>
+        <v>531</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>401</v>
@@ -12287,25 +12287,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0005150352226547096</v>
+        <v>0.0005171303700990683</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E186">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F186">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>402</v>
@@ -12337,25 +12337,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0005150352226547096</v>
+        <v>0.0004960636141366011</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E187">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F187">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>531</v>
+        <v>65</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>403</v>
@@ -12387,25 +12387,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0005094607026240998</v>
+        <v>0.0004891806021809224</v>
       </c>
       <c r="C188">
         <v>2</v>
       </c>
       <c r="D188">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E188">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F188">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>404</v>
@@ -12437,13 +12437,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0004887063920764658</v>
+        <v>0.0004673184136920503</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E189">
         <v>0.92</v>
@@ -12455,7 +12455,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>405</v>
@@ -12487,25 +12487,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0004819254634946879</v>
+        <v>0.0004576578141229456</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D190">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E190">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="F190">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>406</v>
@@ -12537,25 +12537,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0004603875176449641</v>
+        <v>0.0004362578101306178</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E191">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F191">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>407</v>
@@ -12587,25 +12587,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0004508701964261326</v>
+        <v>0.0004362578101306178</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E192">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="F192">
-        <v>0.15</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>408</v>
@@ -12637,25 +12637,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.000429787580319093</v>
+        <v>0.000402521490550897</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E193">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F193">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>409</v>
@@ -12687,25 +12687,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.000429787580319093</v>
+        <v>0.0003656663914545607</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E194">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F194">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>410</v>
@@ -12737,25 +12737,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0003965516110726087</v>
+        <v>0.0003656663914545607</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E195">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F195">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>411</v>
@@ -12787,7 +12787,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0003602431175735645</v>
+        <v>0.0003656663914545607</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -12805,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>351</v>
+        <v>73</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>412</v>
@@ -12837,28 +12837,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003602431175735645</v>
+        <v>0.0003354097523983708</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D197">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E197">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F197">
-        <v>0.11</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K197">
         <v>0.001136512086902461</v>
@@ -12887,28 +12887,28 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003602431175735645</v>
+        <v>0.0003251449998324396</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E198">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F198">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K198">
         <v>0.001135933318973469</v>
@@ -12937,28 +12937,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.000330435220989078</v>
+        <v>0.0003251449998324396</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E199">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="F199">
-        <v>0.1899999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K199">
         <v>0.001077983342985271</v>
@@ -12987,28 +12987,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0003203227070914703</v>
+        <v>0.0002802833385131971</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E200">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F200">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K200">
         <v>0.001077738831059866</v>
@@ -13037,28 +13037,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0003203227070914703</v>
+        <v>0.0002802833385131971</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E201">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F201">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K201">
         <v>0.0010314784256996</v>
@@ -13087,7 +13087,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0002761263983498134</v>
+        <v>0.0002802833385131971</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13105,10 +13105,10 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K202">
         <v>0.001028106855633055</v>
@@ -13137,7 +13137,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0002761263983498134</v>
+        <v>0.0002802833385131971</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13155,10 +13155,10 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K203">
         <v>0.0009982957703881942</v>
@@ -13187,7 +13187,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0002761263983498134</v>
+        <v>0.0002802833385131971</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13205,7 +13205,7 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>413</v>
@@ -13237,25 +13237,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0002761263983498134</v>
+        <v>0.0002302755665892658</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E205">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F205">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>414</v>
@@ -13287,25 +13287,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0002761263983498134</v>
+        <v>0.0002302755665892658</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E206">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F206">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>415</v>
@@ -13337,7 +13337,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002268603020341957</v>
+        <v>0.0002302755665892658</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -13355,7 +13355,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>416</v>
@@ -13387,7 +13387,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002268603020341957</v>
+        <v>0.0002302755665892658</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13405,7 +13405,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>417</v>
@@ -13437,25 +13437,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002268603020341957</v>
+        <v>0.0002033952707645722</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E209">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F209">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>418</v>
@@ -13487,25 +13487,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0002268603020341957</v>
+        <v>0.0001742653445253781</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E210">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F210">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>419</v>
@@ -13537,25 +13537,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0002003786734364234</v>
+        <v>0.0001742653445253781</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F211">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>420</v>
@@ -13587,7 +13587,7 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0001716807791581102</v>
+        <v>0.0001742653445253781</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>421</v>
@@ -13637,25 +13637,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0001716807791581102</v>
+        <v>0.0001581432442330126</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F213">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>422</v>
@@ -13687,25 +13687,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0001716807791581102</v>
+        <v>0.0001581432442330126</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>423</v>
@@ -13737,25 +13737,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.000155797789069651</v>
+        <v>0.0001573287319990791</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E215">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F215">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>26</v>
+        <v>954</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>424</v>
@@ -13787,13 +13787,13 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.000155797789069651</v>
+        <v>0.000111824160396004</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E216">
         <v>0.75</v>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>425</v>
@@ -13837,25 +13837,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0001549953570351214</v>
+        <v>0.000111824160396004</v>
       </c>
       <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
         <v>4</v>
       </c>
-      <c r="D217">
-        <v>14</v>
-      </c>
       <c r="E217">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>954</v>
+        <v>15</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>426</v>
@@ -13887,7 +13887,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0001101656731450221</v>
+        <v>0.000111824160396004</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -13905,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>427</v>
@@ -13937,7 +13937,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0001101656731450221</v>
+        <v>0.000111824160396004</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -13955,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>428</v>
@@ -13987,7 +13987,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0001101656731450221</v>
+        <v>0.000111824160396004</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14005,7 +14005,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>429</v>
@@ -14037,7 +14037,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001101656731450221</v>
+        <v>0.000111824160396004</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14055,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>430</v>
@@ -14087,7 +14087,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001101656731450221</v>
+        <v>0.000111824160396004</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14105,7 +14105,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>431</v>
@@ -14137,7 +14137,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001101656731450221</v>
+        <v>0.000111824160396004</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14155,7 +14155,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>432</v>
@@ -14187,25 +14187,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001101656731450221</v>
+        <v>0.0001112482132720298</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E224">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F224">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>433</v>
@@ -14237,25 +14237,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0001101656731450221</v>
+        <v>6.436866834260276E-05</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E225">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F225">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>434</v>
@@ -14287,25 +14287,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0001095982680119644</v>
+        <v>4.551552188100225E-05</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F226">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>435</v>
@@ -14337,13 +14337,13 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>6.341400330929652E-05</v>
+        <v>4.551552188100225E-05</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E227">
         <v>0.67</v>
@@ -14355,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>436</v>
@@ -14387,7 +14387,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>4.484047176218973E-05</v>
+        <v>4.551552188100225E-05</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14405,7 +14405,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>437</v>
@@ -14437,7 +14437,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>4.484047176218973E-05</v>
+        <v>4.551552188100225E-05</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>438</v>
@@ -14487,7 +14487,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>4.484047176218973E-05</v>
+        <v>4.551552188100225E-05</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14505,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>439</v>
@@ -14537,7 +14537,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>4.484047176218973E-05</v>
+        <v>4.551552188100225E-05</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14555,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>440</v>
@@ -14587,7 +14587,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>4.484047176218973E-05</v>
+        <v>4.551552188100225E-05</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>441</v>
@@ -14637,7 +14637,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>4.484047176218973E-05</v>
+        <v>4.551552188100225E-05</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14655,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>442</v>
@@ -14687,7 +14687,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>4.484047176218973E-05</v>
+        <v>4.551552188100225E-05</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14705,7 +14705,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>443</v>
@@ -14737,7 +14737,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>4.484047176218973E-05</v>
+        <v>4.551552188100225E-05</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14755,7 +14755,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>444</v>
@@ -14787,7 +14787,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>4.484047176218973E-05</v>
+        <v>4.551552188100225E-05</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>445</v>
@@ -14837,25 +14837,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>4.484047176218973E-05</v>
+        <v>0</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E237">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F237">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>446</v>
@@ -14887,19 +14887,19 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>4.484047176218973E-05</v>
+        <v>0</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F238">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
@@ -14955,7 +14955,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>448</v>
@@ -15005,7 +15005,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>449</v>
@@ -15055,7 +15055,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>450</v>
@@ -15105,7 +15105,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>451</v>
@@ -15155,7 +15155,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>452</v>
@@ -15205,7 +15205,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>453</v>
@@ -15255,7 +15255,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>454</v>
@@ -15283,30 +15283,6 @@
       </c>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>2</v>
-      </c>
-      <c r="E246">
-        <v>0.5</v>
-      </c>
-      <c r="F246">
-        <v>0.5</v>
-      </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246">
-        <v>38</v>
-      </c>
       <c r="J246" s="1" t="s">
         <v>455</v>
       </c>
@@ -15333,30 +15309,6 @@
       </c>
     </row>
     <row r="247" spans="1:17">
-      <c r="A247" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247">
-        <v>0</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247">
-        <v>2</v>
-      </c>
-      <c r="E247">
-        <v>0.5</v>
-      </c>
-      <c r="F247">
-        <v>0.5</v>
-      </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247">
-        <v>8</v>
-      </c>
       <c r="J247" s="1" t="s">
         <v>456</v>
       </c>
@@ -15722,7 +15674,7 @@
     </row>
     <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K261">
         <v>0.0009778660115017069</v>
@@ -15748,7 +15700,7 @@
     </row>
     <row r="262" spans="10:17">
       <c r="J262" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K262">
         <v>0.0009628766126151267</v>
@@ -15774,7 +15726,7 @@
     </row>
     <row r="263" spans="10:17">
       <c r="J263" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K263">
         <v>0.0009237456148246287</v>
@@ -15800,7 +15752,7 @@
     </row>
     <row r="264" spans="10:17">
       <c r="J264" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K264">
         <v>0.0008841708890629345</v>
@@ -15826,7 +15778,7 @@
     </row>
     <row r="265" spans="10:17">
       <c r="J265" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K265">
         <v>0.0008841708890629345</v>
@@ -15852,7 +15804,7 @@
     </row>
     <row r="266" spans="10:17">
       <c r="J266" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K266">
         <v>0.0008841708890629345</v>
@@ -15878,7 +15830,7 @@
     </row>
     <row r="267" spans="10:17">
       <c r="J267" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K267">
         <v>0.0008841708890629345</v>
@@ -15904,7 +15856,7 @@
     </row>
     <row r="268" spans="10:17">
       <c r="J268" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K268">
         <v>0.0008441387737029275</v>
@@ -19258,7 +19210,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K397">
         <v>0.000803635403549205</v>
@@ -19284,7 +19236,7 @@
     </row>
     <row r="398" spans="10:17">
       <c r="J398" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K398">
         <v>0.0007626468682031694</v>
@@ -19310,7 +19262,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K399">
         <v>0.0007038624439503921</v>
@@ -19336,7 +19288,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K400">
         <v>0.000679159941766983</v>
@@ -19362,7 +19314,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K401">
         <v>0.000593577769855444</v>
@@ -19388,7 +19340,7 @@
     </row>
     <row r="402" spans="10:17">
       <c r="J402" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K402">
         <v>0.0005882089450193425</v>
@@ -19414,7 +19366,7 @@
     </row>
     <row r="403" spans="10:17">
       <c r="J403" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K403">
         <v>0.0005880046858062273</v>
@@ -27292,7 +27244,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K706">
         <v>0.0005559682066182246</v>
@@ -27318,7 +27270,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K707">
         <v>0.0005499770777047786</v>
@@ -27344,7 +27296,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K708">
         <v>0.0005499770777047786</v>
@@ -27370,7 +27322,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K709">
         <v>0.0005464020668201656</v>
@@ -27396,7 +27348,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K710">
         <v>0.0005344841268143717</v>
@@ -27422,7 +27374,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K711">
         <v>0.0005058308944959444</v>
@@ -27448,7 +27400,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K712">
         <v>0.0005058308944959444</v>
@@ -27474,7 +27426,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K713">
         <v>0.0005058308944959444</v>
@@ -27500,7 +27452,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K714">
         <v>0.0004909921082713406</v>
@@ -27526,7 +27478,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K715">
         <v>0.0004807264933838368</v>
@@ -27578,7 +27530,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K717">
         <v>0.0004611427514371589</v>
@@ -27604,7 +27556,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K718">
         <v>0.0004535859652733608</v>
@@ -27630,7 +27582,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K719">
         <v>0.0004383536264421331</v>
@@ -27656,7 +27608,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K720">
         <v>0.0004159265337777622</v>
@@ -27682,7 +27634,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K721">
         <v>0.0003925115382092779</v>
@@ -27708,7 +27660,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K722">
         <v>0.0003702120968522861</v>
@@ -27734,7 +27686,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K723">
         <v>0.0003702120968522861</v>
@@ -27760,7 +27712,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K724">
         <v>0.000359506915918705</v>
@@ -27786,7 +27738,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K725">
         <v>0.0003240542468025606</v>
@@ -27812,7 +27764,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K726">
         <v>0.000292356063581871</v>
@@ -27838,7 +27790,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K727">
         <v>0.0002775475703617431</v>
@@ -27864,7 +27816,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K728">
         <v>0.0002775475703617431</v>
@@ -27890,7 +27842,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K729">
         <v>0.0002775475703617431</v>
@@ -27916,7 +27868,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K730">
         <v>0.0002308519195590822</v>
@@ -27942,7 +27894,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K731">
         <v>0.0002308519195590822</v>
@@ -27968,7 +27920,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K732">
         <v>0.0001873674409324793</v>
@@ -27994,7 +27946,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K733">
         <v>0.0001842384611030181</v>
@@ -28020,7 +27972,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K734">
         <v>0.0001842384611030181</v>
@@ -28046,7 +27998,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K735">
         <v>0.0001842384611030181</v>
@@ -28072,7 +28024,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K736">
         <v>0.0001842384611030181</v>
@@ -28098,7 +28050,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K737">
         <v>0.0001842384611030181</v>
@@ -28124,7 +28076,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K738">
         <v>0.0001381784294444984</v>
@@ -28150,7 +28102,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K739">
         <v>0.0001381784294444984</v>
@@ -28176,7 +28128,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K740">
         <v>0.0001381784294444984</v>
@@ -28202,7 +28154,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K741">
         <v>0.0001381784294444984</v>
@@ -28228,7 +28180,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K742">
         <v>0.0001021132886606177</v>
@@ -28254,7 +28206,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K743">
         <v>9.352945749831887E-05</v>
@@ -28280,7 +28232,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K744">
         <v>9.352945749831887E-05</v>
@@ -28306,7 +28258,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K745">
         <v>9.352945749831887E-05</v>
@@ -28332,7 +28284,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K746">
         <v>8.725382411931703E-05</v>
@@ -28358,7 +28310,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K747">
         <v>7.350530122405653E-05</v>
@@ -28384,7 +28336,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K748">
         <v>7.350530122405653E-05</v>
@@ -28410,7 +28362,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K749">
         <v>6.67552516149243E-05</v>
@@ -28436,7 +28388,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K750">
         <v>5.197609694869021E-05</v>
@@ -28462,7 +28414,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K751">
         <v>5.197609694869021E-05</v>
@@ -28488,7 +28440,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K752">
         <v>5.197609694869021E-05</v>
@@ -28514,7 +28466,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K753">
         <v>5.197609694869021E-05</v>
@@ -28540,7 +28492,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K754">
         <v>5.197609694869021E-05</v>
@@ -28566,7 +28518,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K755">
         <v>5.197609694869021E-05</v>
@@ -28592,7 +28544,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K756">
         <v>5.197609694869021E-05</v>
@@ -28618,7 +28570,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K757">
         <v>5.197609694869021E-05</v>
@@ -28644,7 +28596,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K758">
         <v>4.72030910967272E-05</v>
@@ -28670,7 +28622,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K759">
         <v>2.44285063153397E-05</v>
@@ -28696,7 +28648,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K760">
         <v>1.727356246983519E-05</v>
@@ -28722,7 +28674,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K761">
         <v>1.727356246983519E-05</v>
@@ -28748,7 +28700,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K762">
         <v>1.727356246983519E-05</v>
@@ -28774,7 +28726,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K763">
         <v>1.727356246983519E-05</v>
@@ -28800,7 +28752,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K764">
         <v>1.727356246983519E-05</v>
@@ -28826,7 +28778,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K765">
         <v>1.727356246983519E-05</v>
@@ -28852,7 +28804,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K766">
         <v>1.727356246983519E-05</v>
@@ -28878,7 +28830,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K767">
         <v>1.727356246983519E-05</v>
@@ -28904,7 +28856,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K768">
         <v>1.727356246983519E-05</v>
@@ -28930,7 +28882,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K769">
         <v>1.727356246983519E-05</v>
@@ -28956,7 +28908,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K770">
         <v>1.727356246983519E-05</v>
@@ -28982,7 +28934,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K771">
         <v>0</v>
@@ -29008,7 +28960,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K772">
         <v>0</v>
@@ -29034,7 +28986,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K773">
         <v>0</v>
@@ -29060,7 +29012,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K774">
         <v>0</v>
@@ -29086,7 +29038,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K775">
         <v>0</v>
@@ -29112,7 +29064,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K776">
         <v>0</v>
@@ -29138,7 +29090,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K777">
         <v>0</v>
@@ -29164,7 +29116,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K778">
         <v>0</v>
@@ -29190,7 +29142,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K779">
         <v>0</v>
